--- a/Data/Transitions/19551974Translation.xlsx
+++ b/Data/Transitions/19551974Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="705">
   <si>
     <t>id</t>
   </si>
@@ -592,7 +592,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6871389480085133}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0, 98.0: 0.198807936632421, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
@@ -1742,9 +1742,6 @@
   </si>
   <si>
     <t>{315.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 0.8644858180802012, 98.0: 0.04427483582506636, 532.0: 0.0650062875506497, 560.0: 0.02623305854408272}</t>
@@ -4593,7 +4590,7 @@
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>576</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4604,7 +4601,7 @@
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4626,7 +4623,7 @@
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4637,7 +4634,7 @@
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4648,7 +4645,7 @@
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4659,7 +4656,7 @@
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4670,7 +4667,7 @@
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4714,7 +4711,7 @@
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4780,7 +4777,7 @@
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4824,7 +4821,7 @@
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4835,7 +4832,7 @@
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4857,7 +4854,7 @@
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4934,7 +4931,7 @@
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4956,7 +4953,7 @@
         <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4967,7 +4964,7 @@
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4978,7 +4975,7 @@
         <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -5000,7 +4997,7 @@
         <v>229</v>
       </c>
       <c r="C228" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -5044,7 +5041,7 @@
         <v>233</v>
       </c>
       <c r="C232" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -5055,7 +5052,7 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -5066,7 +5063,7 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -5077,7 +5074,7 @@
         <v>236</v>
       </c>
       <c r="C235" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -5088,7 +5085,7 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5110,7 +5107,7 @@
         <v>239</v>
       </c>
       <c r="C238" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -5209,7 +5206,7 @@
         <v>248</v>
       </c>
       <c r="C247" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -5220,7 +5217,7 @@
         <v>249</v>
       </c>
       <c r="C248" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5231,7 +5228,7 @@
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5264,7 +5261,7 @@
         <v>253</v>
       </c>
       <c r="C252" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5275,7 +5272,7 @@
         <v>254</v>
       </c>
       <c r="C253" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5286,7 +5283,7 @@
         <v>255</v>
       </c>
       <c r="C254" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5363,7 +5360,7 @@
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5374,7 +5371,7 @@
         <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5385,7 +5382,7 @@
         <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5407,7 +5404,7 @@
         <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5429,7 +5426,7 @@
         <v>268</v>
       </c>
       <c r="C267" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5440,7 +5437,7 @@
         <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5451,7 +5448,7 @@
         <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5484,7 +5481,7 @@
         <v>273</v>
       </c>
       <c r="C272" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5506,7 +5503,7 @@
         <v>275</v>
       </c>
       <c r="C274" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5517,7 +5514,7 @@
         <v>276</v>
       </c>
       <c r="C275" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5528,7 +5525,7 @@
         <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5539,7 +5536,7 @@
         <v>278</v>
       </c>
       <c r="C277" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5550,7 +5547,7 @@
         <v>279</v>
       </c>
       <c r="C278" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5561,7 +5558,7 @@
         <v>280</v>
       </c>
       <c r="C279" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5583,7 +5580,7 @@
         <v>282</v>
       </c>
       <c r="C281" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5594,7 +5591,7 @@
         <v>283</v>
       </c>
       <c r="C282" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5616,7 +5613,7 @@
         <v>285</v>
       </c>
       <c r="C284" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5638,7 +5635,7 @@
         <v>287</v>
       </c>
       <c r="C286" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5649,7 +5646,7 @@
         <v>288</v>
       </c>
       <c r="C287" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5660,7 +5657,7 @@
         <v>289</v>
       </c>
       <c r="C288" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5704,7 +5701,7 @@
         <v>293</v>
       </c>
       <c r="C292" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5715,7 +5712,7 @@
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5748,7 +5745,7 @@
         <v>297</v>
       </c>
       <c r="C296" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5781,7 +5778,7 @@
         <v>300</v>
       </c>
       <c r="C299" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5836,7 +5833,7 @@
         <v>305</v>
       </c>
       <c r="C304" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5847,7 +5844,7 @@
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5869,7 +5866,7 @@
         <v>308</v>
       </c>
       <c r="C307" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5880,7 +5877,7 @@
         <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5902,7 +5899,7 @@
         <v>311</v>
       </c>
       <c r="C310" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5968,7 +5965,7 @@
         <v>317</v>
       </c>
       <c r="C316" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5990,7 +5987,7 @@
         <v>319</v>
       </c>
       <c r="C318" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -6001,7 +5998,7 @@
         <v>320</v>
       </c>
       <c r="C319" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -6023,7 +6020,7 @@
         <v>322</v>
       </c>
       <c r="C321" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -6078,7 +6075,7 @@
         <v>327</v>
       </c>
       <c r="C326" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -6089,7 +6086,7 @@
         <v>328</v>
       </c>
       <c r="C327" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -6144,7 +6141,7 @@
         <v>333</v>
       </c>
       <c r="C332" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -6155,7 +6152,7 @@
         <v>334</v>
       </c>
       <c r="C333" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -6166,7 +6163,7 @@
         <v>335</v>
       </c>
       <c r="C334" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -6177,7 +6174,7 @@
         <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6188,7 +6185,7 @@
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6199,7 +6196,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6232,7 +6229,7 @@
         <v>341</v>
       </c>
       <c r="C340" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6254,7 +6251,7 @@
         <v>343</v>
       </c>
       <c r="C342" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6276,7 +6273,7 @@
         <v>345</v>
       </c>
       <c r="C344" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6287,7 +6284,7 @@
         <v>346</v>
       </c>
       <c r="C345" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -6298,7 +6295,7 @@
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6320,7 +6317,7 @@
         <v>349</v>
       </c>
       <c r="C348" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6331,7 +6328,7 @@
         <v>350</v>
       </c>
       <c r="C349" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6342,7 +6339,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6375,7 +6372,7 @@
         <v>354</v>
       </c>
       <c r="C353" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -6408,7 +6405,7 @@
         <v>357</v>
       </c>
       <c r="C356" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6419,7 +6416,7 @@
         <v>358</v>
       </c>
       <c r="C357" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6452,7 +6449,7 @@
         <v>361</v>
       </c>
       <c r="C360" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6463,7 +6460,7 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6496,7 +6493,7 @@
         <v>365</v>
       </c>
       <c r="C364" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6507,7 +6504,7 @@
         <v>366</v>
       </c>
       <c r="C365" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6518,7 +6515,7 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6551,7 +6548,7 @@
         <v>370</v>
       </c>
       <c r="C369" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -6595,7 +6592,7 @@
         <v>374</v>
       </c>
       <c r="C373" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6771,7 +6768,7 @@
         <v>390</v>
       </c>
       <c r="C389" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -6826,7 +6823,7 @@
         <v>395</v>
       </c>
       <c r="C394" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -6837,7 +6834,7 @@
         <v>396</v>
       </c>
       <c r="C395" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -6870,7 +6867,7 @@
         <v>399</v>
       </c>
       <c r="C398" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -6881,7 +6878,7 @@
         <v>400</v>
       </c>
       <c r="C399" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -6892,7 +6889,7 @@
         <v>401</v>
       </c>
       <c r="C400" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -6914,7 +6911,7 @@
         <v>403</v>
       </c>
       <c r="C402" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -6925,7 +6922,7 @@
         <v>404</v>
       </c>
       <c r="C403" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -6936,7 +6933,7 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -6947,7 +6944,7 @@
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -6958,7 +6955,7 @@
         <v>407</v>
       </c>
       <c r="C406" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -6969,7 +6966,7 @@
         <v>408</v>
       </c>
       <c r="C407" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -6980,7 +6977,7 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -6991,7 +6988,7 @@
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -7024,7 +7021,7 @@
         <v>413</v>
       </c>
       <c r="C412" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -7046,7 +7043,7 @@
         <v>415</v>
       </c>
       <c r="C414" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -7068,7 +7065,7 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7090,7 +7087,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7145,7 +7142,7 @@
         <v>424</v>
       </c>
       <c r="C423" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -7200,7 +7197,7 @@
         <v>429</v>
       </c>
       <c r="C428" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -7211,7 +7208,7 @@
         <v>430</v>
       </c>
       <c r="C429" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -7222,7 +7219,7 @@
         <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7277,7 +7274,7 @@
         <v>436</v>
       </c>
       <c r="C435" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -7288,7 +7285,7 @@
         <v>437</v>
       </c>
       <c r="C436" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -7299,7 +7296,7 @@
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7310,7 +7307,7 @@
         <v>439</v>
       </c>
       <c r="C438" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7321,7 +7318,7 @@
         <v>440</v>
       </c>
       <c r="C439" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7332,7 +7329,7 @@
         <v>441</v>
       </c>
       <c r="C440" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7354,7 +7351,7 @@
         <v>443</v>
       </c>
       <c r="C442" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7376,7 +7373,7 @@
         <v>445</v>
       </c>
       <c r="C444" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7453,7 +7450,7 @@
         <v>452</v>
       </c>
       <c r="C451" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -7486,7 +7483,7 @@
         <v>455</v>
       </c>
       <c r="C454" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -7519,7 +7516,7 @@
         <v>458</v>
       </c>
       <c r="C457" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -7552,7 +7549,7 @@
         <v>461</v>
       </c>
       <c r="C460" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -7585,7 +7582,7 @@
         <v>464</v>
       </c>
       <c r="C463" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7607,7 +7604,7 @@
         <v>466</v>
       </c>
       <c r="C465" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7629,7 +7626,7 @@
         <v>468</v>
       </c>
       <c r="C467" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7651,7 +7648,7 @@
         <v>470</v>
       </c>
       <c r="C469" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7662,7 +7659,7 @@
         <v>471</v>
       </c>
       <c r="C470" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -7684,7 +7681,7 @@
         <v>473</v>
       </c>
       <c r="C472" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7695,7 +7692,7 @@
         <v>474</v>
       </c>
       <c r="C473" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -7794,7 +7791,7 @@
         <v>483</v>
       </c>
       <c r="C482" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
   </sheetData>
